--- a/опт и Краснодар/2023/12,23/14,12,23 Патяка/Заказ Патяки Поком 13.12.23..xlsx
+++ b/опт и Краснодар/2023/12,23/14,12,23 Патяка/Заказ Патяки Поком 13.12.23..xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ЭтаКнига"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User1\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\ПОКОМ\pokom_data\опт и Краснодар\2023\12,23\14,12,23 Патяка\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43C2CA58-5448-4A94-B4C0-E0D231373C68}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB9B774B-F9EC-46AA-BA22-70F2CCF2F32F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Заказ!$D$1:$D$54</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="181029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -536,7 +536,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1" indent="2"/>
@@ -666,6 +666,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="5" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -968,15 +977,15 @@
   </sheetPr>
   <dimension ref="B1:AF54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.5703125" customWidth="1"/>
-    <col min="2" max="2" width="59.7109375" style="31" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" style="2" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="78" style="31" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" style="2" customWidth="1"/>
     <col min="4" max="5" width="12.28515625" style="2" customWidth="1"/>
     <col min="6" max="8" width="17.7109375" style="2" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="10.7109375" style="2" customWidth="1"/>
@@ -1823,16 +1832,16 @@
       </c>
     </row>
     <row r="18" spans="2:32" ht="16.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="33" t="s">
+      <c r="B18" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="25">
+      <c r="C18" s="46">
         <v>11</v>
       </c>
-      <c r="D18" s="11">
+      <c r="D18" s="47">
         <v>100</v>
       </c>
-      <c r="E18" s="11">
+      <c r="E18" s="47">
         <f t="shared" si="8"/>
         <v>1100</v>
       </c>
